--- a/app_automation/data/dd_user_info.xlsx
+++ b/app_automation/data/dd_user_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>用户名</t>
   </si>
@@ -52,7 +52,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,21 +61,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <name val="Courier New"/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -536,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,137 +537,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,12 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,13 +1028,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1066,7 +1050,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1079,12 +1063,8 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1096,14 +1076,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
